--- a/pred_ohlcv/54_21/2020-01-14 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>228710.0296109901</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>228710.0296109901</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>229167.0296109901</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>229147.0296109901</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>229604.0286109901</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>229437.7052109901</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>214417.7052109901</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>135856.3039920101</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-323299080.2273228</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-323293806.5307228</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-323293806.5307228</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-323314943.3776228</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-323425746.3319531</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-323447247.9681531</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-323447186.7335398</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-323457357.2050398</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-323430370.1831397</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-323434681.5343398</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-323343958.8440399</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-323345281.4233398</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-323345281.4233398</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-323346727.6892399</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-323346727.6892399</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-323346877.9362398</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-323347102.8889399</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-323346848.3479398</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-323398692.8969963</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-323424165.0759963</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-323424165.0759963</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-323422675.0759963</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-323422629.6167416</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-323428862.2757538</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-323430464.2757538</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-323430464.2757538</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-323449264.2757538</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-323446683.3757538</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-323564671.5828853</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-323564305.1482939</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-323480130.526356</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-323483941.226356</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-323500093.314256</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-323499929.468656</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-323500601.468656</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-323499817.468656</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-323500256.746256</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>228710.0296109901</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>228710.0296109901</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>229167.0296109901</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>229147.0296109901</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>229604.0286109901</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>229437.7052109901</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>214417.7052109901</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>198757.8769109901</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-323299080.2273228</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-323293806.5307228</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-323293806.5307228</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-323312961.9522228</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-323297936.5452228</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-323310122.3776228</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-323314943.3776228</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-323314943.3776228</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-323322958.3172229</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-323332979.0383229</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-323332517.0321229</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-323332425.3583229</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-323396399.1879228</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-323425746.3319531</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-323424680.0892531</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-323457357.2050398</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-323343958.8440399</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-323345281.4233398</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-323345281.4233398</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-323346727.6892399</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-323346727.6892399</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-323346877.9362398</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-323347102.8889399</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-323346848.3479398</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-323398692.8969963</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-323424165.0759963</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-323424165.0759963</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-323422675.0759963</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-323422629.6167416</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-323428862.2757538</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-323430464.2757538</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-323430464.2757538</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-323449264.2757538</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-323446683.3757538</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-323564671.5828853</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-323564305.1482939</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-323480130.526356</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-323483941.226356</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-323500093.314256</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-323499929.468656</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-323500601.468656</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-323499817.468656</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-323500256.746256</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
